--- a/data/20news-18828/2_class/concepts_computer_.xlsx
+++ b/data/20news-18828/2_class/concepts_computer_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="1660" windowWidth="24960" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
-  <si>
-    <t>layer_1</t>
-  </si>
-  <si>
-    <t>layer_2</t>
-  </si>
-  <si>
-    <t>layer_3</t>
-  </si>
-  <si>
-    <t>concepts</t>
-  </si>
-  <si>
-    <t>layer_no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Computer Cases</t>
   </si>
@@ -110,9 +95,6 @@
     <t>USB Mouse</t>
   </si>
   <si>
-    <t>Plastic Mouse Pad Rubber Mouse Pad</t>
-  </si>
-  <si>
     <t>Processor</t>
   </si>
   <si>
@@ -126,6 +108,9 @@
   </si>
   <si>
     <t>Hard Disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic </t>
   </si>
 </sst>
 </file>
@@ -440,224 +425,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="O1" sqref="O1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/20news-18828/2_class/concepts_computer_.xlsx
+++ b/data/20news-18828/2_class/concepts_computer_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="3880" windowWidth="24960" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Computer Cases</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Plastic </t>
+  </si>
+  <si>
+    <t>concepts</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P3"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,133 +454,177 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
     </row>
